--- a/documentation/methodology/MPCs/mpc_tables.xlsx
+++ b/documentation/methodology/MPCs/mpc_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/documentation/methodology/MPCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFB92D8-BA68-9A4E-B131-B6056334B0C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5688807-BB69-664B-8B82-73B04F4DC5F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" xr2:uid="{825C73E2-064A-41F9-A032-19D778B689EB}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19520" xr2:uid="{825C73E2-064A-41F9-A032-19D778B689EB}"/>
   </bookViews>
   <sheets>
     <sheet name="All Output (Final)" sheetId="1" r:id="rId1"/>
@@ -591,6 +591,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,7 +601,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -918,14 +918,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3622AD19-E9A0-4F5D-B44D-5CDCA5807A3E}">
   <dimension ref="A1:XFB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="15" width="10.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5" customWidth="1"/>
   </cols>
@@ -3650,7 +3650,7 @@
       <c r="P40" s="31"/>
     </row>
     <row r="41" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="69" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="38">
@@ -3700,7 +3700,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="69" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="38">
@@ -3752,7 +3752,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="69" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="38">
@@ -3804,7 +3804,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="72" t="s">
+      <c r="A44" s="69" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="38">
@@ -3857,24 +3857,24 @@
     </row>
     <row r="46" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="69" t="s">
+      <c r="A47" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="70"/>
-      <c r="P47" s="71"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="72"/>
     </row>
     <row r="48" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
@@ -4460,6 +4460,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008515011893A210449DAA8339AE3CA5B0" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="477fc3160cd11f7e8ffc4c735a86b82a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="deabcd68-119c-429a-9d71-422d03771023" xmlns:ns4="077f7628-a02d-4539-9cae-e7e6d8970771" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cf3452fc7d40f4f91f7dd95bdc8891" ns3:_="" ns4:_="">
     <xsd:import namespace="deabcd68-119c-429a-9d71-422d03771023"/>
@@ -4682,12 +4688,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82F1B7E7-F0E0-4E7A-9FC8-B1C5168779FE}">
   <ds:schemaRefs>
@@ -4697,6 +4697,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C366ECB2-8A25-4AD5-87DF-CE53C131E629}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="deabcd68-119c-429a-9d71-422d03771023"/>
+    <ds:schemaRef ds:uri="077f7628-a02d-4539-9cae-e7e6d8970771"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8CDC05-AC33-4D91-9BE0-B6651748DD80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4713,21 +4730,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C366ECB2-8A25-4AD5-87DF-CE53C131E629}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="deabcd68-119c-429a-9d71-422d03771023"/>
-    <ds:schemaRef ds:uri="077f7628-a02d-4539-9cae-e7e6d8970771"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>